--- a/WorkSet_Mapping.xlsx
+++ b/WorkSet_Mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>System Name in Model File</t>
   </si>
@@ -107,9 +107,6 @@
     <t>C-L4xx</t>
   </si>
   <si>
-    <t>ED</t>
-  </si>
-  <si>
     <t>A-E4xx</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>M-S4xx</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>U-D4xx</t>
   </si>
   <si>
@@ -197,15 +191,9 @@
     <t>M-S</t>
   </si>
   <si>
-    <t>STB</t>
-  </si>
-  <si>
     <t>V-V</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>NO EXPORT</t>
   </si>
   <si>
@@ -258,6 +246,18 @@
   </si>
   <si>
     <t>Workset Name</t>
+  </si>
+  <si>
+    <t>C-L</t>
+  </si>
+  <si>
+    <t>S-T</t>
+  </si>
+  <si>
+    <t>R-R</t>
+  </si>
+  <si>
+    <t>F-D</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -311,7 +311,44 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -324,7 +361,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -339,38 +389,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -381,38 +403,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -422,34 +413,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -458,12 +425,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,37 +439,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,7 +746,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,14 +758,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -815,293 +773,281 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>60</v>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
